--- a/va_facility_data_2025-02-20/Northeast Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northeast%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northeast Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northeast%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5550743556b14af6b1ed0b739c8b3277"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra9572c614ec540068d76b5b072910c99"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R852d39fa72c948b78d85439ccb0b2425"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R326c879a2cce4a99980ae903acaf4bda"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6e306ea07175423b9a641d426ec438d3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcc85a9d67f8944f79b697f382b21bb48"/>
   </x:sheets>
 </x:workbook>
 </file>
